--- a/Data/Uppgiftsdata.xlsx
+++ b/Data/Uppgiftsdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Grundläggande statistik med tillämpningar inom naturvetenskap\R\R-anvisningar\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2EB79-FEC7-476A-97B6-9FABB2ADC752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8760E-5408-4DB1-B2B5-98BB71A2B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="928" firstSheet="1" activeTab="18" xr2:uid="{E21B11A5-3983-4CC8-B401-B14B36A292D4}"/>
+    <workbookView xWindow="-22860" yWindow="1695" windowWidth="21600" windowHeight="13185" tabRatio="928" firstSheet="1" activeTab="5" xr2:uid="{E21B11A5-3983-4CC8-B401-B14B36A292D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Frilandskrysantemum" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CAF69B-900A-4051-AF73-3083D394AB94}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +2860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C374CE0-A620-48DE-B737-C0354706187F}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2911,7 +2913,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1040.2</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/Data/Uppgiftsdata.xlsx
+++ b/Data/Uppgiftsdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Grundläggande statistik med tillämpningar inom naturvetenskap\R\R-anvisningar\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D8760E-5408-4DB1-B2B5-98BB71A2B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A554A60-CC13-408B-8A4E-43956493F009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22860" yWindow="1695" windowWidth="21600" windowHeight="13185" tabRatio="928" firstSheet="1" activeTab="5" xr2:uid="{E21B11A5-3983-4CC8-B401-B14B36A292D4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="928" firstSheet="1" activeTab="7" xr2:uid="{E21B11A5-3983-4CC8-B401-B14B36A292D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Frilandskrysantemum" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,19 @@
     <sheet name="IQ" sheetId="5" r:id="rId5"/>
     <sheet name="Smältpunkt" sheetId="6" r:id="rId6"/>
     <sheet name="Äppelträd" sheetId="7" r:id="rId7"/>
-    <sheet name="Gödning" sheetId="8" r:id="rId8"/>
-    <sheet name="Lökfärg" sheetId="9" r:id="rId9"/>
-    <sheet name="Po-ta-toes" sheetId="10" r:id="rId10"/>
-    <sheet name="Kuldiameter" sheetId="11" r:id="rId11"/>
-    <sheet name="Äppelangrepp" sheetId="12" r:id="rId12"/>
-    <sheet name="Jordgubbar" sheetId="13" r:id="rId13"/>
-    <sheet name="Majshybrider" sheetId="14" r:id="rId14"/>
-    <sheet name="Luftfuktighet" sheetId="15" r:id="rId15"/>
-    <sheet name="Blodtryck" sheetId="16" r:id="rId16"/>
-    <sheet name="Morötter" sheetId="17" r:id="rId17"/>
-    <sheet name="Metodjämförelse" sheetId="18" r:id="rId18"/>
-    <sheet name="Darwin" sheetId="19" r:id="rId19"/>
+    <sheet name="Ekorrar" sheetId="20" r:id="rId8"/>
+    <sheet name="Gödning" sheetId="8" r:id="rId9"/>
+    <sheet name="Lökfärg" sheetId="9" r:id="rId10"/>
+    <sheet name="Po-ta-toes" sheetId="10" r:id="rId11"/>
+    <sheet name="Kuldiameter" sheetId="11" r:id="rId12"/>
+    <sheet name="Äppelangrepp" sheetId="12" r:id="rId13"/>
+    <sheet name="Jordgubbar" sheetId="13" r:id="rId14"/>
+    <sheet name="Majshybrider" sheetId="14" r:id="rId15"/>
+    <sheet name="Luftfuktighet" sheetId="15" r:id="rId16"/>
+    <sheet name="Blodtryck" sheetId="16" r:id="rId17"/>
+    <sheet name="Morötter" sheetId="17" r:id="rId18"/>
+    <sheet name="Metodjämförelse" sheetId="18" r:id="rId19"/>
+    <sheet name="Darwin" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
   <si>
     <t>Planthöjd</t>
   </si>
@@ -244,6 +245,12 @@
   </si>
   <si>
     <t>Korsbefruktade</t>
+  </si>
+  <si>
+    <t>Tidpunkt</t>
+  </si>
+  <si>
+    <t>Vikt</t>
   </si>
 </sst>
 </file>
@@ -735,6 +742,74 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F8C342-0886-47CD-905F-7C35177A2AFC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>138.9</v>
+      </c>
+      <c r="C2">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>155.1</v>
+      </c>
+      <c r="C3">
+        <v>186.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>126.3</v>
+      </c>
+      <c r="C4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>120.1</v>
+      </c>
+      <c r="C5">
+        <v>180.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFA08BC-3332-4743-BA80-14CCEF3F7614}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -832,7 +907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020CBCD8-2CF6-4B16-8258-50B5F9BC29FD}">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -1077,7 +1152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA54869-8655-42AA-AF4B-67B9B1E7CE20}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1194,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C033C32-2FD9-4C3D-BC90-41E1CA5A48F6}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -1383,7 +1458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246BDE5B-F1BD-454E-894A-F83BB0721068}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1627,7 +1702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4C8350-C539-413F-A817-45D0A421B24A}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1805,7 +1880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F710B7-2BAB-46B4-AE4B-7AD73A53CA25}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1906,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F61845E-A588-43DC-AE81-DF0CBE2B8E35}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -2029,7 +2104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0274CEE-45F7-40FD-AAB9-7AD31018A0B2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -2246,362 +2321,6 @@
       </c>
       <c r="C19">
         <v>904</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CAF69B-900A-4051-AF73-3083D394AB94}">
-  <dimension ref="A1:C31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="1">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="1">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="1">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="1">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="1">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="1">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="1">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="1">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2688,6 +2407,362 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CAF69B-900A-4051-AF73-3083D394AB94}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="1">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C0E2D2-7E47-435A-8FD0-A6E3C70D871E}">
   <dimension ref="A1:A11"/>
@@ -2860,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C374CE0-A620-48DE-B737-C0354706187F}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -3019,6 +3094,123 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5741B50E-3483-4D77-87BF-3956FCFEA119}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378E86A4-6BAE-4D16-9BA9-4C968A1B98E0}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3139,72 +3331,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F8C342-0886-47CD-905F-7C35177A2AFC}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>138.9</v>
-      </c>
-      <c r="C2">
-        <v>135.69999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>155.1</v>
-      </c>
-      <c r="C3">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>126.3</v>
-      </c>
-      <c r="C4">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>120.1</v>
-      </c>
-      <c r="C5">
-        <v>180.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>